--- a/Belohnungssystem.xlsx
+++ b/Belohnungssystem.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anamarija\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steam\steamapps\common\GarrysMod\garrysmod\gamemodes\redbeard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8A5676-ED59-47E8-A92E-90181BB36448}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE762C2-9634-4A56-B8E1-CA21840AF6E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{12FF370F-8846-4818-91D0-151F25E7ACB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>Rangliste Belohnung</t>
   </si>
@@ -162,6 +163,18 @@
   </si>
   <si>
     <t>10 Punkte = richtig gut, 1 Punkt= zumindestens versucht</t>
+  </si>
+  <si>
+    <t>Sounddateien, Mutanten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soundateien, KI </t>
+  </si>
+  <si>
+    <t>Projektbewertungsstart: 02.12.18</t>
+  </si>
+  <si>
+    <t>Einheitendesign Konzept</t>
   </si>
 </sst>
 </file>
@@ -364,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -417,6 +430,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,7 +748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77D01AB-A831-4DA9-9935-3EBDA37AE007}">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
@@ -740,10 +756,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="29" width="15.7109375" customWidth="1"/>
+    <col min="1" max="27" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -751,41 +767,44 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>1</v>
       </c>
@@ -793,23 +812,18 @@
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -819,9 +833,8 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -832,252 +845,242 @@
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="G18" s="10" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="G19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="M18" s="10" t="s">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="L19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="S18" s="10" t="s">
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="Q19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="Y18" s="10" t="s">
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="W19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-    </row>
-    <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="T20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="U20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="W20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="X20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="Y20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="13" t="s">
+      <c r="Z20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="14" t="s">
+      <c r="AA20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="S19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="T19" s="13" t="s">
+    </row>
+    <row r="21" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="9">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9">
+        <v>5</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="9">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9">
+        <f xml:space="preserve"> AVERAGE(8,8,7)</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="J21" s="9">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="9">
         <v>4</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="V19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="W19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC19" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="9">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="9">
-        <v>5</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-    </row>
-    <row r="21" spans="1:29" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-    </row>
-    <row r="22" spans="1:29" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+    </row>
+    <row r="22" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="1"/>
+      <c r="G22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="23">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23">
+        <f>AVERAGE(9,7,8)</f>
+        <v>8</v>
+      </c>
+      <c r="J22" s="23">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="P22" s="1"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="1"/>
+      <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
       <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-    </row>
-    <row r="23" spans="1:29" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1088,113 +1091,141 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
+      <c r="P23" s="1"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="1"/>
+      <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
       <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-    </row>
-    <row r="24" spans="1:29" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="1"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="1"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4" t="s">
+    </row>
+    <row r="25" spans="1:27" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="4">
-        <f>D20*E20*B20</f>
+      <c r="E26" s="4">
+        <f>D21*E21*B21</f>
         <v>25</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="4" t="s">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="4">
-        <f>J20*K20*H20</f>
+      <c r="J26" s="4">
+        <f>I21*J21*H21</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="4">
+        <f>N21*O21*M21</f>
         <v>0</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="4" t="s">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q25" s="4">
-        <f>P20*Q20*N20</f>
+      <c r="U26" s="4">
+        <f>T21*U21*R21</f>
         <v>0</v>
       </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="4" t="s">
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W25" s="4">
-        <f>V20*W20*T20</f>
+      <c r="AA26" s="4">
+        <f>Z21*AA21*X21</f>
         <v>0</v>
       </c>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC25" s="4">
-        <f>AB20*AC20*Z20</f>
-        <v>0</v>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f>7.666+8</f>
+        <v>15.666</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A10:K12"/>
+    <mergeCell ref="A11:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Belohnungssystem.xlsx
+++ b/Belohnungssystem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steam\steamapps\common\GarrysMod\garrysmod\gamemodes\redbeard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE762C2-9634-4A56-B8E1-CA21840AF6E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E4234E-8933-4BA7-876A-229E724AD63D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{12FF370F-8846-4818-91D0-151F25E7ACB8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Rangliste Belohnung</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Einheitendesign Konzept</t>
+  </si>
+  <si>
+    <t>TS Aufnahmen von allen</t>
   </si>
 </sst>
 </file>
@@ -428,11 +431,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77D01AB-A831-4DA9-9935-3EBDA37AE007}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,42 +824,42 @@
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
@@ -1032,10 +1035,14 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="6"/>
+      <c r="Q21" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="R21" s="9"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="9"/>
+      <c r="T21" s="9">
+        <v>10</v>
+      </c>
       <c r="U21" s="9"/>
       <c r="W21" s="6"/>
       <c r="X21" s="9"/>
@@ -1053,14 +1060,14 @@
       <c r="G22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>1</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <f>AVERAGE(9,7,8)</f>
         <v>8</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>1</v>
       </c>
       <c r="K22" s="1"/>

--- a/Belohnungssystem.xlsx
+++ b/Belohnungssystem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steam\steamapps\common\GarrysMod\garrysmod\gamemodes\redbeard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E4234E-8933-4BA7-876A-229E724AD63D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0ECBEA-72BC-4284-A4D3-4E550045B446}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{12FF370F-8846-4818-91D0-151F25E7ACB8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>Rangliste Belohnung</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Summe</t>
   </si>
   <si>
-    <t>Programmierung der Platzierung von Gebäuden</t>
-  </si>
-  <si>
     <t>Timur</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Max</t>
   </si>
   <si>
-    <t>Runde AustrittsRöhren können beliebig in der Anzahl platziert werden</t>
-  </si>
-  <si>
     <t>Anzahl Stunden</t>
   </si>
   <si>
@@ -178,12 +172,18 @@
   </si>
   <si>
     <t>TS Aufnahmen von allen</t>
+  </si>
+  <si>
+    <t>Truck Sound Dateien</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -436,6 +436,19 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77D01AB-A831-4DA9-9935-3EBDA37AE007}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>15.6</v>
@@ -817,7 +830,7 @@
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -825,7 +838,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -883,7 +896,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -891,33 +904,33 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="L19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="Q19" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="W19" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
@@ -929,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>5</v>
@@ -996,29 +1009,19 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="9">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="9">
-        <v>5</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="1"/>
       <c r="G21" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H21" s="9">
         <v>1</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="26">
         <f xml:space="preserve"> AVERAGE(8,8,7)</f>
         <v>7.666666666666667</v>
       </c>
@@ -1027,7 +1030,7 @@
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M21" s="9">
         <v>4</v>
@@ -1036,7 +1039,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R21" s="9"/>
       <c r="S21" s="5"/>
@@ -1058,7 +1061,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="1"/>
       <c r="G22" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H22" s="22">
         <v>1</v>
@@ -1071,10 +1074,19 @@
         <v>1</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="L22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="22">
+        <v>2</v>
+      </c>
+      <c r="N22" s="25">
+        <f>AVERAGE(8,9,8)</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="O22" s="22">
+        <v>1</v>
+      </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -1180,7 +1192,7 @@
       </c>
       <c r="E26" s="4">
         <f>D21*E21*B21</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1188,9 +1200,9 @@
       <c r="I26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="4">
-        <f>I21*J21*H21</f>
-        <v>7.666666666666667</v>
+      <c r="J26" s="28">
+        <f>I21*J21*H21+H22*I22*J22</f>
+        <v>15.666666666666668</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1199,8 +1211,8 @@
         <v>13</v>
       </c>
       <c r="O26" s="4">
-        <f>N21*O21*M21</f>
-        <v>0</v>
+        <f>ROUNDUP(N22*O22*M22,0)</f>
+        <v>17</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -1225,10 +1237,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="J28">
-        <f>7.666+8</f>
-        <v>15.666</v>
-      </c>
+      <c r="J28" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Belohnungssystem.xlsx
+++ b/Belohnungssystem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steam\steamapps\common\GarrysMod\garrysmod\gamemodes\redbeard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0ECBEA-72BC-4284-A4D3-4E550045B446}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE764571-2E53-41B6-8F62-58C4A795424C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{12FF370F-8846-4818-91D0-151F25E7ACB8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>Rangliste Belohnung</t>
   </si>
@@ -51,81 +51,6 @@
     <t>Ergebnis</t>
   </si>
   <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
     <t>Bewertung</t>
   </si>
   <si>
@@ -171,10 +96,10 @@
     <t>Einheitendesign Konzept</t>
   </si>
   <si>
-    <t>TS Aufnahmen von allen</t>
-  </si>
-  <si>
     <t>Truck Sound Dateien</t>
+  </si>
+  <si>
+    <t>TS Aufnahmen Zuschneidung</t>
   </si>
 </sst>
 </file>
@@ -182,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -210,13 +135,6 @@
     </font>
     <font>
       <b/>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -240,6 +158,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -380,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -414,13 +340,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -434,21 +360,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,15 +699,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77D01AB-A831-4DA9-9935-3EBDA37AE007}">
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="27" width="15.7109375" customWidth="1"/>
+    <col min="1" max="25" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
@@ -786,35 +721,54 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
+    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
       <c r="B3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="30">
+        <f>J26</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
+      <c r="B4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="31">
+        <f>O26</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="31">
+        <f>T26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
+      <c r="C6" s="31">
+        <f>E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="31">
+        <f>Y26</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
@@ -830,49 +784,49 @@
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="A11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
@@ -886,7 +840,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>2</v>
       </c>
@@ -894,64 +848,62 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="L19" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="Q19" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="W19" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="V19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="W19" s="11"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>3</v>
@@ -960,10 +912,10 @@
         <v>4</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>3</v>
@@ -972,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>3</v>
@@ -984,31 +936,25 @@
         <v>4</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="U20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="W20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="W20" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="X20" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA20" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="9"/>
       <c r="C21" s="5"/>
@@ -1016,12 +962,12 @@
       <c r="E21" s="9"/>
       <c r="F21" s="1"/>
       <c r="G21" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H21" s="9">
         <v>1</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="25">
         <f xml:space="preserve"> AVERAGE(8,8,7)</f>
         <v>7.666666666666667</v>
       </c>
@@ -1030,7 +976,7 @@
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M21" s="9">
         <v>4</v>
@@ -1039,21 +985,19 @@
       <c r="O21" s="9"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="9">
-        <v>10</v>
-      </c>
-      <c r="U21" s="9"/>
-      <c r="W21" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="R21" s="9">
+        <v>2</v>
+      </c>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="9"/>
       <c r="X21" s="9"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-    </row>
-    <row r="22" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y21" s="9"/>
+    </row>
+    <row r="22" spans="1:25" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1061,7 +1005,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="1"/>
       <c r="G22" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H22" s="22">
         <v>1</v>
@@ -1074,13 +1018,13 @@
         <v>1</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="24" t="s">
-        <v>27</v>
+      <c r="L22" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="M22" s="22">
         <v>2</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N22" s="24">
         <f>AVERAGE(8,9,8)</f>
         <v>8.3333333333333339</v>
       </c>
@@ -1092,14 +1036,12 @@
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-    </row>
-    <row r="23" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:25" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1120,14 +1062,12 @@
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-    </row>
-    <row r="24" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:25" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1148,14 +1088,12 @@
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-    </row>
-    <row r="25" spans="1:27" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:25" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1174,21 +1112,19 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
+      <c r="S25" s="8"/>
       <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
+      <c r="V25" s="7"/>
       <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E26" s="4">
         <f>D21*E21*B21</f>
@@ -1198,17 +1134,17 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="28">
-        <f>I21*J21*H21+H22*I22*J22</f>
-        <v>15.666666666666668</v>
+        <v>8</v>
+      </c>
+      <c r="J26" s="27">
+        <f>ROUNDUP(I21*J21*H21+H22*I22*J22,0)</f>
+        <v>16</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O26" s="4">
         <f>ROUNDUP(N22*O22*M22,0)</f>
@@ -1217,27 +1153,25 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U26" s="4">
-        <f>T21*U21*R21</f>
+      <c r="S26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="4">
+        <f>S21*T21*R21</f>
         <v>0</v>
       </c>
+      <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA26" s="4">
-        <f>Z21*AA21*X21</f>
+      <c r="X26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="4">
+        <f>X21*Y21*W21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="J28" s="27"/>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J28" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Belohnungssystem.xlsx
+++ b/Belohnungssystem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steam\steamapps\common\GarrysMod\garrysmod\gamemodes\redbeard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE764571-2E53-41B6-8F62-58C4A795424C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAE94F4-6B94-46F3-816F-6943E27EFC6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{12FF370F-8846-4818-91D0-151F25E7ACB8}"/>
   </bookViews>
@@ -370,19 +370,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77D01AB-A831-4DA9-9935-3EBDA37AE007}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="I17" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,47 +726,47 @@
       <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="31">
         <f>J26</f>
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="28">
         <f>O26</f>
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="28">
         <f>T26</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="28">
         <f>E26</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="28">
         <f>Y26</f>
         <v>0</v>
       </c>
@@ -791,42 +791,42 @@
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
@@ -990,8 +990,13 @@
       <c r="R21" s="9">
         <v>2</v>
       </c>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
+      <c r="S21" s="25">
+        <f>AVERAGE(10,9,9)</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="T21" s="9">
+        <v>1</v>
+      </c>
       <c r="V21" s="6"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
@@ -1136,7 +1141,7 @@
       <c r="I26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="30">
         <f>ROUNDUP(I21*J21*H21+H22*I22*J22,0)</f>
         <v>16</v>
       </c>
@@ -1157,8 +1162,8 @@
         <v>8</v>
       </c>
       <c r="T26" s="4">
-        <f>S21*T21*R21</f>
-        <v>0</v>
+        <f>ROUNDUP(S21*T21*R21,0)</f>
+        <v>19</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
